--- a/branch_structures.xlsx
+++ b/branch_structures.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85170560-A3A7-466A-B0F8-84D0D5CEC515}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263685D9-EEBB-4E6F-866B-778F00FE6AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NHG2,NHG,S,G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E2F1G4gfF5fe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +314,10 @@
   </si>
   <si>
     <t>0.05*N</t>
+  </si>
+  <si>
+    <t>NHG2,NHG,NG,HG,G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,25 +662,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -731,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -762,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -813,10 +813,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -864,7 +864,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -875,13 +875,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -932,7 +932,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,13 +985,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/branch_structures.xlsx
+++ b/branch_structures.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263685D9-EEBB-4E6F-866B-778F00FE6AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93628B-A8FB-4E73-AC5D-171E5E167262}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>E2F2fF5fe</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,18 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E2F1G5gfF5fF5fe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHF3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHF3,NHF2,NHF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E2F1G4gfF4fe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,18 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NHF4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHF4,NHF3,NHF2,NHF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2F1G5gG5gfF5fF5fe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N2S,NS,S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,6 +290,7 @@
   </si>
   <si>
     <t>0.05*N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NHG2,NHG,NG,HG,G</t>
@@ -642,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -662,25 +639,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -711,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>22</v>
@@ -731,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -739,13 +716,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -762,10 +739,10 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -779,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -796,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
@@ -813,10 +790,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -830,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -841,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -858,13 +835,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
@@ -875,13 +852,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -889,13 +866,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -932,7 +909,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -957,41 +934,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
